--- a/impl/src/main/resources/purchase-order/template/draft.xlsx
+++ b/impl/src/main/resources/purchase-order/template/draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="56380" windowHeight="31940"/>
+    <workbookView xWindow="57600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="발주서" sheetId="14" r:id="rId1"/>
@@ -281,12 +281,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${receiverAddress.address.street}
-${receiverAddress.address.detail} (우)${receiverAddress.address.postalCode}</t>
+    <t>품목코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>품목코드</t>
+    <t>${order.receiveAddress.street}
+${order.receiveAddress.detail} (우)${order.receiveAddress.postalCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1312,6 +1312,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,15 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1420,76 +1486,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -40256,7 +40256,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M22"/>
+      <selection activeCell="K11" sqref="K11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -40281,22 +40281,22 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K2" s="2"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -40305,10 +40305,10 @@
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="83"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
@@ -40320,28 +40320,28 @@
       <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="88"/>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -40349,89 +40349,89 @@
       <c r="J7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="66" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
     <row r="9" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="42"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="43"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="19" t="s">
         <v>11</v>
       </c>
@@ -40444,8 +40444,8 @@
       <c r="M10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -40459,35 +40459,35 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="67" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I12" s="42"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>50</v>
+      <c r="K12" s="70" t="s">
+        <v>51</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I13" s="44"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="8" t="s">
         <v>12</v>
       </c>
@@ -40508,52 +40508,52 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="73" t="s">
+      <c r="G16" s="95"/>
+      <c r="H16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="96"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
@@ -40564,31 +40564,31 @@
       <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="66" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="89"/>
+      <c r="H17" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="91"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
@@ -40606,89 +40606,72 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
     </row>
     <row r="22" spans="1:15" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="I8:I10"/>
@@ -40705,6 +40688,23 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
